--- a/evaluation/results/LOF/split_3/test_95_5/evaluation_metrics.xlsx
+++ b/evaluation/results/LOF/split_3/test_95_5/evaluation_metrics.xlsx
@@ -518,7 +518,7 @@
         <v>0.2810810810810811</v>
       </c>
       <c r="H2">
-        <v>0.6128945960406633</v>
+        <v>0.7231139646869984</v>
       </c>
       <c r="I2">
         <v>8</v>
